--- a/Inclusion_sports/Uploads/LGBTQ+ friendly event.xlsx
+++ b/Inclusion_sports/Uploads/LGBTQ+ friendly event.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\source\repos\Inclusion_sports\Inclusion_sports\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A47E8A-6523-4267-94F0-DB05ECD01CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF4BC8F-17C5-43A7-A5D2-DE0B44079621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Organiser</t>
   </si>
@@ -48,110 +48,164 @@
     <t>Badminton</t>
   </si>
   <si>
+    <t>https://melbournesmashers.tidyhq.com/public/schedule/events/41830-guest-registration-sunday-3rd-april-2022</t>
+  </si>
+  <si>
+    <t>bentkranks</t>
+  </si>
+  <si>
+    <t>Dandenong Creek Trail</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>https://bentkranks.com.au/icalendar/eventdetail/299/-/all-the-way-with-dandenong-creek-trail-nearly</t>
+  </si>
+  <si>
+    <t>Ringwood</t>
+  </si>
+  <si>
+    <t>https://bentkranks.com.au/icalendar/eventdetail/300/-/ringwood-to-seville-carriage-cafe</t>
+  </si>
+  <si>
+    <t>Melbourne Spikers</t>
+  </si>
+  <si>
+    <t>142 Cromwell StreetCollingwood, VIC, 3066Australia</t>
+  </si>
+  <si>
+    <t>Regular Sunday training session</t>
+  </si>
+  <si>
+    <t>https://www.melbournespikers.org.au/training-and-events/sun-training-03-apr-2022</t>
+  </si>
+  <si>
+    <t>Rgular Wednesday training session</t>
+  </si>
+  <si>
+    <t>https://www.melbournespikers.org.au/training-and-events/wed-social-06-apr-2022</t>
+  </si>
+  <si>
+    <t>143 Cromwell StreetCollingwood, VIC, 3066Australia</t>
+  </si>
+  <si>
+    <t>https://www.melbournespikers.org.au/training-and-events/sun-training-10-apr-2022</t>
+  </si>
+  <si>
+    <t>144 Cromwell StreetCollingwood, VIC, 3066Australia</t>
+  </si>
+  <si>
+    <t>https://www.melbournespikers.org.au/training-and-events/wed-social-13-apr-2022</t>
+  </si>
+  <si>
+    <t>145 Cromwell StreetCollingwood, VIC, 3066Australia</t>
+  </si>
+  <si>
+    <t>https://www.melbournespikers.org.au/training-and-events/wed-social-20-apr-2022</t>
+  </si>
+  <si>
+    <t>Climbing QTs</t>
+  </si>
+  <si>
+    <t>359 Plummer StreetPort Melbourne, VIC, 3207Australia</t>
+  </si>
+  <si>
+    <t>ClimbingQTs Meet-up</t>
+  </si>
+  <si>
+    <t>https://www.climbingqts.com/events-vic/nov21-vicmeetup-yzkjf-y8cc7-bpcf7-grd7k-25afs</t>
+  </si>
+  <si>
+    <t>Volleyball Training and coaching</t>
+  </si>
+  <si>
+    <t>Volleyball Social play</t>
+  </si>
+  <si>
+    <t>Climbing Meet-up</t>
+  </si>
+  <si>
+    <t>Start_time</t>
+  </si>
+  <si>
+    <t>End_time</t>
+  </si>
+  <si>
+    <t>Event_type</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Gang Meow Party</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parties</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Guest Registration</t>
-  </si>
-  <si>
-    <t>https://melbournesmashers.tidyhq.com/public/schedule/events/41830-guest-registration-sunday-3rd-april-2022</t>
-  </si>
-  <si>
-    <t>bentkranks</t>
-  </si>
-  <si>
-    <t>Dandenong Creek Trail</t>
-  </si>
-  <si>
-    <t>Cycling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>All the way with Dandenong Creek Trail (nearly)</t>
-  </si>
-  <si>
-    <t>https://bentkranks.com.au/icalendar/eventdetail/299/-/all-the-way-with-dandenong-creek-trail-nearly</t>
-  </si>
-  <si>
-    <t>Ringwood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ringwood to Seville Carriage café</t>
-  </si>
-  <si>
-    <t>https://bentkranks.com.au/icalendar/eventdetail/300/-/ringwood-to-seville-carriage-cafe</t>
-  </si>
-  <si>
-    <t>Melbourne Spikers</t>
-  </si>
-  <si>
-    <t>142 Cromwell StreetCollingwood, VIC, 3066Australia</t>
-  </si>
-  <si>
-    <t>Regular Sunday training session</t>
-  </si>
-  <si>
-    <t>https://www.melbournespikers.org.au/training-and-events/sun-training-03-apr-2022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Rgular Wednesday training session</t>
-  </si>
-  <si>
-    <t>https://www.melbournespikers.org.au/training-and-events/wed-social-06-apr-2022</t>
-  </si>
-  <si>
-    <t>143 Cromwell StreetCollingwood, VIC, 3066Australia</t>
-  </si>
-  <si>
-    <t>https://www.melbournespikers.org.au/training-and-events/sun-training-10-apr-2022</t>
-  </si>
-  <si>
-    <t>144 Cromwell StreetCollingwood, VIC, 3066Australia</t>
-  </si>
-  <si>
-    <t>https://www.melbournespikers.org.au/training-and-events/wed-social-13-apr-2022</t>
-  </si>
-  <si>
-    <t>145 Cromwell StreetCollingwood, VIC, 3066Australia</t>
-  </si>
-  <si>
-    <t>https://www.melbournespikers.org.au/training-and-events/wed-social-20-apr-2022</t>
-  </si>
-  <si>
-    <t>Climbing QTs</t>
-  </si>
-  <si>
-    <t>359 Plummer StreetPort Melbourne, VIC, 3207Australia</t>
-  </si>
-  <si>
-    <t>ClimbingQTs Meet-up</t>
-  </si>
-  <si>
-    <t>https://www.climbingqts.com/events-vic/nov21-vicmeetup-yzkjf-y8cc7-bpcf7-grd7k-25afs</t>
-  </si>
-  <si>
-    <t>Volleyball Training and coaching</t>
-  </si>
-  <si>
-    <t>Volleyball Social play</t>
-  </si>
-  <si>
-    <t>Climbing Meet-up</t>
-  </si>
-  <si>
-    <t>Start_time</t>
-  </si>
-  <si>
-    <t>End_time</t>
-  </si>
-  <si>
-    <t>Event_type</t>
-  </si>
-  <si>
-    <t>Link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parties for LGBTQ+ Women &amp; Non Binary Folk</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/gang-meow-party-tickets-300209694277?aff=ebdssbdestsearch&amp;keep_tld=1</t>
+  </si>
+  <si>
+    <t>11 Ellis Street #level 1, South Yarra, VIC 3141</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>232 Gertrude Street #230, Fitzroy, VIC 3065</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Seen is a celebration of intersectional identities and the elements of queer culture.</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/open-seen-evies-disco-diner-tickets-218928128927?aff=ebdssbdestsearch&amp;keep_tld=1</t>
+  </si>
+  <si>
+    <t>Mad Hatter's Tea Party</t>
+  </si>
+  <si>
+    <t>Mad Hatters Tea Party is a youth event for 12-25 year old who identify as part of the LGBTQIA+ community.</t>
+  </si>
+  <si>
+    <t>63 Railway Avenue, Werribee, VIC 3030</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/mad-hatters-tea-party-tickets-311496784267?aff=ebdssbdestsearch&amp;keep_tld=1</t>
+  </si>
+  <si>
+    <t>Open Seen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,28 +218,50 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF777777"/>
-      <name val="Open Sans"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
+      <sz val="12"/>
+      <color rgb="FF39364F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E0A3C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +272,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
-        <bgColor rgb="FFF7F7F7"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,16 +294,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,916 +530,993 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="25" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44654</v>
+      </c>
+      <c r="C2" s="14">
+        <v>44654.583333333336</v>
+      </c>
+      <c r="D2" s="14">
+        <v>44654.666666666664</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44660</v>
+      </c>
+      <c r="C3" s="14">
+        <v>44660.416666666664</v>
+      </c>
+      <c r="D3" s="14">
+        <v>44660.645833333336</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44675</v>
+      </c>
+      <c r="C4" s="14">
+        <v>44675.4375</v>
+      </c>
+      <c r="D4" s="14">
+        <v>44675.645833333336</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44654</v>
+      </c>
+      <c r="C5" s="14">
+        <v>44655.541666666664</v>
+      </c>
+      <c r="D5" s="14">
+        <v>44655.666666666664</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44657</v>
+      </c>
+      <c r="C6" s="14">
+        <v>44657.78125</v>
+      </c>
+      <c r="D6" s="14">
+        <v>44657.864583333336</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44661</v>
+      </c>
+      <c r="C7" s="14">
+        <v>44661.541666666664</v>
+      </c>
+      <c r="D7" s="14">
+        <v>44661.625</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44664</v>
+      </c>
+      <c r="C8" s="14">
+        <v>44664.78125</v>
+      </c>
+      <c r="D8" s="14">
+        <v>44664.864583333336</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44671</v>
+      </c>
+      <c r="C9" s="14">
+        <v>44671.78125</v>
+      </c>
+      <c r="D9" s="14">
+        <v>44671.864583333336</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44660</v>
+      </c>
+      <c r="C10" s="14">
+        <v>44660.375</v>
+      </c>
+      <c r="D10" s="14">
+        <v>44660.5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B11" s="4">
+        <v>44680</v>
+      </c>
+      <c r="C11" s="14">
+        <v>44680.833333333336</v>
+      </c>
+      <c r="D11" s="14">
+        <v>44680.958333333336</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>44654</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5">
-        <v>44660</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>44675</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.4375</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5">
-        <v>44654</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5">
-        <v>44657</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.78125</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="G11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4">
         <v>44661</v>
       </c>
-      <c r="C7" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44664</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.78125</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44671</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.78125</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44660</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
+      <c r="C12" s="14">
+        <v>44661.708333333336</v>
+      </c>
+      <c r="D12" s="14">
+        <v>44661.958333333336</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
+      <c r="A13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44663</v>
+      </c>
+      <c r="C13" s="14">
+        <v>44663.416666666664</v>
+      </c>
+      <c r="D13" s="14">
+        <v>44663.625</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B32" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="1"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="1"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B19" s="1"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B20" s="1"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B21" s="1"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B22" s="1"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B23" s="1"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B24" s="1"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B25" s="1"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B26" s="1"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B27" s="1"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B28" s="1"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B29" s="1"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B35" s="2"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B37" s="2"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B38" s="2"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B40" s="2"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B41" s="2"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B42" s="2"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B43" s="2"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B44" s="2"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B45" s="2"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B46" s="2"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B47" s="2"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B48" s="2"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B49" s="2"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B50" s="2"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B51" s="2"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B52" s="2"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B53" s="2"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B54" s="2"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B55" s="2"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B56" s="2"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B57" s="2"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B58" s="2"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B59" s="2"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B60" s="2"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B61" s="2"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B62" s="2"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B63" s="2"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B64" s="2"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B65" s="2"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B66" s="2"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B67" s="2"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B68" s="2"/>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B69" s="2"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B70" s="2"/>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B71" s="2"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B72" s="2"/>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B73" s="2"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B74" s="2"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B75" s="2"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B76" s="2"/>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B77" s="2"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B78" s="2"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B79" s="2"/>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B80" s="2"/>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B81" s="2"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B82" s="2"/>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B83" s="2"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B84" s="2"/>
+      <c r="B84" s="1"/>
     </row>
     <row r="85" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B85" s="2"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B86" s="2"/>
+      <c r="B86" s="1"/>
     </row>
     <row r="87" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B87" s="2"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B88" s="2"/>
+      <c r="B88" s="1"/>
     </row>
     <row r="89" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B89" s="2"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B90" s="2"/>
+      <c r="B90" s="1"/>
     </row>
     <row r="91" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B91" s="2"/>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B92" s="2"/>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B93" s="2"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B94" s="2"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B95" s="2"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B96" s="2"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B97" s="2"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B98" s="2"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B99" s="2"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B100" s="2"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B101" s="2"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B102" s="2"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B103" s="2"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B104" s="2"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B105" s="2"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B106" s="2"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B107" s="2"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B108" s="2"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B109" s="2"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B110" s="2"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B111" s="2"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B112" s="2"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B113" s="2"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B114" s="2"/>
+      <c r="B114" s="1"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B115" s="2"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B116" s="2"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B117" s="2"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B118" s="2"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B119" s="2"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B120" s="2"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B121" s="2"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B122" s="2"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B123" s="2"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B124" s="2"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B125" s="2"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B126" s="2"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B127" s="2"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B128" s="2"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B129" s="2"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B130" s="2"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B131" s="2"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B132" s="2"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B133" s="2"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B134" s="2"/>
+      <c r="B134" s="1"/>
     </row>
     <row r="135" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B135" s="2"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B136" s="2"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B137" s="2"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B138" s="2"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B139" s="2"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B140" s="2"/>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B141" s="2"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B142" s="2"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B143" s="2"/>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B144" s="2"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B145" s="2"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B146" s="2"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B147" s="2"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B148" s="2"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B149" s="2"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B150" s="2"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B151" s="2"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B152" s="2"/>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B153" s="2"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B154" s="2"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B155" s="2"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B156" s="2"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B157" s="2"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B158" s="2"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B159" s="2"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B160" s="2"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B161" s="2"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B162" s="2"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B163" s="2"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B164" s="2"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B165" s="2"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B166" s="2"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B167" s="2"/>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B168" s="2"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B169" s="2"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B170" s="2"/>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B171" s="2"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B172" s="2"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B173" s="2"/>
+      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B174" s="2"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B175" s="2"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B176" s="2"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B177" s="2"/>
+      <c r="B177" s="1"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B178" s="2"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B179" s="2"/>
+      <c r="B179" s="1"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B180" s="2"/>
+      <c r="B180" s="1"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B181" s="2"/>
+      <c r="B181" s="1"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B182" s="2"/>
+      <c r="B182" s="1"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B183" s="2"/>
+      <c r="B183" s="1"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B184" s="2"/>
+      <c r="B184" s="1"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B185" s="2"/>
+      <c r="B185" s="1"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B186" s="2"/>
+      <c r="B186" s="1"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B187" s="2"/>
+      <c r="B187" s="1"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B188" s="2"/>
+      <c r="B188" s="1"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B189" s="2"/>
+      <c r="B189" s="1"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B190" s="2"/>
+      <c r="B190" s="1"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B191" s="2"/>
+      <c r="B191" s="1"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B192" s="2"/>
+      <c r="B192" s="1"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B193" s="2"/>
+      <c r="B193" s="1"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B194" s="2"/>
+      <c r="B194" s="1"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B195" s="2"/>
+      <c r="B195" s="1"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B196" s="2"/>
+      <c r="B196" s="1"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B197" s="2"/>
+      <c r="B197" s="1"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B198" s="2"/>
+      <c r="B198" s="1"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B199" s="2"/>
+      <c r="B199" s="1"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B200" s="2"/>
+      <c r="B200" s="1"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B201" s="2"/>
+      <c r="B201" s="1"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B202" s="2"/>
+      <c r="B202" s="1"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B203" s="2"/>
+      <c r="B203" s="1"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B204" s="2"/>
+      <c r="B204" s="1"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B205" s="2"/>
+      <c r="B205" s="1"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B206" s="2"/>
+      <c r="B206" s="1"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B207" s="2"/>
+      <c r="B207" s="1"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B208" s="2"/>
+      <c r="B208" s="1"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B209" s="2"/>
+      <c r="B209" s="1"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B210" s="2"/>
+      <c r="B210" s="1"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B211" s="2"/>
+      <c r="B211" s="1"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B212" s="2"/>
+      <c r="B212" s="1"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B213" s="2"/>
+      <c r="B213" s="1"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B214" s="2"/>
+      <c r="B214" s="1"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B215" s="2"/>
+      <c r="B215" s="1"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B216" s="2"/>
+      <c r="B216" s="1"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B217" s="2"/>
-    </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B218" s="2"/>
-    </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B220" s="2"/>
-    </row>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="219" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="220" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="221" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="222" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="223" spans="2:2" ht="15.75" customHeight="1"/>
@@ -2139,10 +2294,8 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -2155,6 +2308,6 @@
     <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>